--- a/type.xlsx
+++ b/type.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCC6FA8-542A-4445-8306-6B9A6ABBADA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4F48F0-CFAD-473E-9EFA-95E7A4618AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="156" yWindow="588" windowWidth="13104" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="14700" windowHeight="11868" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>1deluxe</t>
   </si>
@@ -75,10 +75,13 @@
     <t>type_name</t>
   </si>
   <si>
-    <t>rate_id</t>
-  </si>
-  <si>
-    <t>capacity</t>
+    <t>low</t>
+  </si>
+  <si>
+    <t>mid</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
 </sst>
 </file>
@@ -396,155 +399,194 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="C8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="C9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+      <c r="D9">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="C10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="D10">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
